--- a/OnlineStoreExample/Products.xlsx
+++ b/OnlineStoreExample/Products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -29,13 +29,19 @@
     <t>Категория</t>
   </si>
   <si>
-    <t>TestMobile</t>
+    <t>SHOOT 'EM ALL</t>
   </si>
   <si>
-    <t>WOW</t>
+    <t>Да, здесь очень красивое описание</t>
   </si>
   <si>
     <t>Мобильные приложения</t>
+  </si>
+  <si>
+    <t>Любой товар</t>
+  </si>
+  <si>
+    <t>Дада</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,7 +112,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -115,9 +121,26 @@
         <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>50</v>
+        <v>399</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0">
+        <v>123</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>7</v>
       </c>
     </row>
